--- a/dictionaries/chemicals_ath/1_0/1_0_yearly_rep.xlsx
+++ b/dictionaries/chemicals_ath/1_0/1_0_yearly_rep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\alldicts\12jul2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\alldicts\14jul2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D04A7-0DDB-4354-8C85-86CB2DAF5C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161BDD76-DE51-4E84-9921-99A3D4B0C008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="180">
   <si>
     <t>table</t>
   </si>
@@ -43,539 +43,536 @@
     <t>label</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>child_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Unique identifer for the child</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Age of child in years</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>label:en</t>
+  </si>
+  <si>
+    <t>c_bps_raw_</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>child urine BPS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_bps_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine BPS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_bpf_raw_ </t>
+  </si>
+  <si>
+    <t>Child urine BPF levels at # years</t>
+  </si>
+  <si>
+    <t>c_bpf_lod_</t>
+  </si>
+  <si>
+    <t>Limit of detection of child urine BPF at # years</t>
+  </si>
+  <si>
+    <t>c_etpa_raw_</t>
+  </si>
+  <si>
+    <t>child urine ETPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_etpa_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ETPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_trcs_raw_</t>
+  </si>
+  <si>
+    <t>child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_trcs_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mibp_raw_</t>
+  </si>
+  <si>
+    <t>child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mibp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mbzp_raw_</t>
+  </si>
+  <si>
+    <t>child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mbzp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mehhp_raw_</t>
+  </si>
+  <si>
+    <t>child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mehhp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mecpp_raw_</t>
+  </si>
+  <si>
+    <t>child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mecpp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ohminp_raw_</t>
+  </si>
+  <si>
+    <t>child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ohminp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cxminp_raw_</t>
+  </si>
+  <si>
+    <t>child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cxminp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ohminch_raw_</t>
+  </si>
+  <si>
+    <t>child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ohminch_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mnpep_raw_</t>
+  </si>
+  <si>
+    <t>child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mnpep_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mnop_raw_</t>
+  </si>
+  <si>
+    <t>child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mnop_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mhxp_raw_</t>
+  </si>
+  <si>
+    <t>child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_mhxp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfhps_raw_</t>
+  </si>
+  <si>
+    <t>child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfhps_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfoa_raw_</t>
+  </si>
+  <si>
+    <t>child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfoa_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfda_raw_</t>
+  </si>
+  <si>
+    <t>child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pfda_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pcb138_raw_</t>
+  </si>
+  <si>
+    <t>pg/g</t>
+  </si>
+  <si>
+    <t>child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pcb138_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pcb170_raw_</t>
+  </si>
+  <si>
+    <t>child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pcb170_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ddt_raw_</t>
+  </si>
+  <si>
+    <t>child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_ddt_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_hcb_raw_</t>
+  </si>
+  <si>
+    <t>child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_hcb_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pbde47_raw_</t>
+  </si>
+  <si>
+    <t>child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pbde47_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cd_raw_</t>
+  </si>
+  <si>
+    <t>child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cd_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_se_raw_</t>
+  </si>
+  <si>
+    <t>child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_se_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_zn_raw_</t>
+  </si>
+  <si>
+    <t>child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_zn_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_tl_raw_</t>
+  </si>
+  <si>
+    <t>child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_tl_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cu_raw_</t>
+  </si>
+  <si>
+    <t>child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cu_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cs_raw_</t>
+  </si>
+  <si>
+    <t>child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_cs_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_k_raw_</t>
+  </si>
+  <si>
+    <t>child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_k_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dmtp_raw_</t>
+  </si>
+  <si>
+    <t>child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dmtp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dep_raw_</t>
+  </si>
+  <si>
+    <t>child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dep_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dedtp_raw_</t>
+  </si>
+  <si>
+    <t>child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_dedtp_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_chrsene_raw_</t>
+  </si>
+  <si>
+    <t>child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_chrsene_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_napthalene_raw_</t>
+  </si>
+  <si>
+    <t>child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_napthalene_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_prene_raw_</t>
+  </si>
+  <si>
+    <t>child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_prene_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pyrethroids_raw_</t>
+  </si>
+  <si>
+    <t>child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_pyrethroids_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_imazalil_raw_</t>
+  </si>
+  <si>
+    <t>child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_imazalil_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_maa_raw_</t>
+  </si>
+  <si>
+    <t>child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_maa_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_eaa_raw_</t>
+  </si>
+  <si>
+    <t>child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_eaa_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_2mpa_raw_</t>
+  </si>
+  <si>
+    <t>child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>c_2mpa_lod_</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>row_id</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>numeric</t>
   </si>
   <si>
     <t>Unique identifer for the row in Opal</t>
-  </si>
-  <si>
-    <t>child_id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Unique identifer for the child</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>Cohort</t>
-  </si>
-  <si>
-    <t>age_years</t>
-  </si>
-  <si>
-    <t>Age of child in years</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>label:en</t>
-  </si>
-  <si>
-    <t>c_bps_raw_</t>
-  </si>
-  <si>
-    <t>µg/L</t>
-  </si>
-  <si>
-    <t>child urine BPS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_bps_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine BPS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_bpf_raw_ </t>
-  </si>
-  <si>
-    <t>Child urine BPF levels at # years</t>
-  </si>
-  <si>
-    <t>c_bpf_lod_</t>
-  </si>
-  <si>
-    <t>Limit of detection of child urine BPF at # years</t>
-  </si>
-  <si>
-    <t>c_etpa_raw_</t>
-  </si>
-  <si>
-    <t>child urine ETPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_etpa_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine ETPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_trcs_raw_</t>
-  </si>
-  <si>
-    <t>child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_trcs_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mibp_raw_</t>
-  </si>
-  <si>
-    <t>child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mibp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mbzp_raw_</t>
-  </si>
-  <si>
-    <t>child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mbzp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mehhp_raw_</t>
-  </si>
-  <si>
-    <t>child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mehhp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mecpp_raw_</t>
-  </si>
-  <si>
-    <t>child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mecpp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ohminp_raw_</t>
-  </si>
-  <si>
-    <t>child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ohminp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cxminp_raw_</t>
-  </si>
-  <si>
-    <t>child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cxminp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ohminch_raw_</t>
-  </si>
-  <si>
-    <t>child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ohminch_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mnpep_raw_</t>
-  </si>
-  <si>
-    <t>child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mnpep_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mnop_raw_</t>
-  </si>
-  <si>
-    <t>child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mnop_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mhxp_raw_</t>
-  </si>
-  <si>
-    <t>child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_mhxp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfhps_raw_</t>
-  </si>
-  <si>
-    <t>child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfhps_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfoa_raw_</t>
-  </si>
-  <si>
-    <t>child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfoa_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfda_raw_</t>
-  </si>
-  <si>
-    <t>child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pfda_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pcb138_raw_</t>
-  </si>
-  <si>
-    <t>pg/g</t>
-  </si>
-  <si>
-    <t>child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pcb138_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pcb170_raw_</t>
-  </si>
-  <si>
-    <t>child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pcb170_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ddt_raw_</t>
-  </si>
-  <si>
-    <t>child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_ddt_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_hcb_raw_</t>
-  </si>
-  <si>
-    <t>child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_hcb_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pbde47_raw_</t>
-  </si>
-  <si>
-    <t>child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pbde47_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cd_raw_</t>
-  </si>
-  <si>
-    <t>child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cd_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_se_raw_</t>
-  </si>
-  <si>
-    <t>child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_se_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_zn_raw_</t>
-  </si>
-  <si>
-    <t>child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_zn_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_tl_raw_</t>
-  </si>
-  <si>
-    <t>child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_tl_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cu_raw_</t>
-  </si>
-  <si>
-    <t>child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cu_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cs_raw_</t>
-  </si>
-  <si>
-    <t>child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_cs_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_k_raw_</t>
-  </si>
-  <si>
-    <t>child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_k_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dmtp_raw_</t>
-  </si>
-  <si>
-    <t>child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dmtp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dep_raw_</t>
-  </si>
-  <si>
-    <t>child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dep_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dedtp_raw_</t>
-  </si>
-  <si>
-    <t>child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_dedtp_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_chrsene_raw_</t>
-  </si>
-  <si>
-    <t>child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_chrsene_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_napthalene_raw_</t>
-  </si>
-  <si>
-    <t>child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_napthalene_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_prene_raw_</t>
-  </si>
-  <si>
-    <t>child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_prene_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pyrethroids_raw_</t>
-  </si>
-  <si>
-    <t>child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_pyrethroids_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_imazalil_raw_</t>
-  </si>
-  <si>
-    <t>child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_imazalil_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_maa_raw_</t>
-  </si>
-  <si>
-    <t>child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_maa_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_eaa_raw_</t>
-  </si>
-  <si>
-    <t>child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_eaa_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_2mpa_raw_</t>
-  </si>
-  <si>
-    <t>child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>c_2mpa_lod_</t>
-  </si>
-  <si>
-    <t>limit of detection of child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
-    <t>decimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -708,8 +705,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +824,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -978,7 +986,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1001,6 +1009,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1422,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH176"/>
+  <dimension ref="A1:AMH175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1435,7 +1444,7 @@
     <col min="5" max="1022" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1449,1173 +1458,2184 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1022" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
+      <c r="UN2"/>
+      <c r="UO2"/>
+      <c r="UP2"/>
+      <c r="UQ2"/>
+      <c r="UR2"/>
+      <c r="US2"/>
+      <c r="UT2"/>
+      <c r="UU2"/>
+      <c r="UV2"/>
+      <c r="UW2"/>
+      <c r="UX2"/>
+      <c r="UY2"/>
+      <c r="UZ2"/>
+      <c r="VA2"/>
+      <c r="VB2"/>
+      <c r="VC2"/>
+      <c r="VD2"/>
+      <c r="VE2"/>
+      <c r="VF2"/>
+      <c r="VG2"/>
+      <c r="VH2"/>
+      <c r="VI2"/>
+      <c r="VJ2"/>
+      <c r="VK2"/>
+      <c r="VL2"/>
+      <c r="VM2"/>
+      <c r="VN2"/>
+      <c r="VO2"/>
+      <c r="VP2"/>
+      <c r="VQ2"/>
+      <c r="VR2"/>
+      <c r="VS2"/>
+      <c r="VT2"/>
+      <c r="VU2"/>
+      <c r="VV2"/>
+      <c r="VW2"/>
+      <c r="VX2"/>
+      <c r="VY2"/>
+      <c r="VZ2"/>
+      <c r="WA2"/>
+      <c r="WB2"/>
+      <c r="WC2"/>
+      <c r="WD2"/>
+      <c r="WE2"/>
+      <c r="WF2"/>
+      <c r="WG2"/>
+      <c r="WH2"/>
+      <c r="WI2"/>
+      <c r="WJ2"/>
+      <c r="WK2"/>
+      <c r="WL2"/>
+      <c r="WM2"/>
+      <c r="WN2"/>
+      <c r="WO2"/>
+      <c r="WP2"/>
+      <c r="WQ2"/>
+      <c r="WR2"/>
+      <c r="WS2"/>
+      <c r="WT2"/>
+      <c r="WU2"/>
+      <c r="WV2"/>
+      <c r="WW2"/>
+      <c r="WX2"/>
+      <c r="WY2"/>
+      <c r="WZ2"/>
+      <c r="XA2"/>
+      <c r="XB2"/>
+      <c r="XC2"/>
+      <c r="XD2"/>
+      <c r="XE2"/>
+      <c r="XF2"/>
+      <c r="XG2"/>
+      <c r="XH2"/>
+      <c r="XI2"/>
+      <c r="XJ2"/>
+      <c r="XK2"/>
+      <c r="XL2"/>
+      <c r="XM2"/>
+      <c r="XN2"/>
+      <c r="XO2"/>
+      <c r="XP2"/>
+      <c r="XQ2"/>
+      <c r="XR2"/>
+      <c r="XS2"/>
+      <c r="XT2"/>
+      <c r="XU2"/>
+      <c r="XV2"/>
+      <c r="XW2"/>
+      <c r="XX2"/>
+      <c r="XY2"/>
+      <c r="XZ2"/>
+      <c r="YA2"/>
+      <c r="YB2"/>
+      <c r="YC2"/>
+      <c r="YD2"/>
+      <c r="YE2"/>
+      <c r="YF2"/>
+      <c r="YG2"/>
+      <c r="YH2"/>
+      <c r="YI2"/>
+      <c r="YJ2"/>
+      <c r="YK2"/>
+      <c r="YL2"/>
+      <c r="YM2"/>
+      <c r="YN2"/>
+      <c r="YO2"/>
+      <c r="YP2"/>
+      <c r="YQ2"/>
+      <c r="YR2"/>
+      <c r="YS2"/>
+      <c r="YT2"/>
+      <c r="YU2"/>
+      <c r="YV2"/>
+      <c r="YW2"/>
+      <c r="YX2"/>
+      <c r="YY2"/>
+      <c r="YZ2"/>
+      <c r="ZA2"/>
+      <c r="ZB2"/>
+      <c r="ZC2"/>
+      <c r="ZD2"/>
+      <c r="ZE2"/>
+      <c r="ZF2"/>
+      <c r="ZG2"/>
+      <c r="ZH2"/>
+      <c r="ZI2"/>
+      <c r="ZJ2"/>
+      <c r="ZK2"/>
+      <c r="ZL2"/>
+      <c r="ZM2"/>
+      <c r="ZN2"/>
+      <c r="ZO2"/>
+      <c r="ZP2"/>
+      <c r="ZQ2"/>
+      <c r="ZR2"/>
+      <c r="ZS2"/>
+      <c r="ZT2"/>
+      <c r="ZU2"/>
+      <c r="ZV2"/>
+      <c r="ZW2"/>
+      <c r="ZX2"/>
+      <c r="ZY2"/>
+      <c r="ZZ2"/>
+      <c r="AAA2"/>
+      <c r="AAB2"/>
+      <c r="AAC2"/>
+      <c r="AAD2"/>
+      <c r="AAE2"/>
+      <c r="AAF2"/>
+      <c r="AAG2"/>
+      <c r="AAH2"/>
+      <c r="AAI2"/>
+      <c r="AAJ2"/>
+      <c r="AAK2"/>
+      <c r="AAL2"/>
+      <c r="AAM2"/>
+      <c r="AAN2"/>
+      <c r="AAO2"/>
+      <c r="AAP2"/>
+      <c r="AAQ2"/>
+      <c r="AAR2"/>
+      <c r="AAS2"/>
+      <c r="AAT2"/>
+      <c r="AAU2"/>
+      <c r="AAV2"/>
+      <c r="AAW2"/>
+      <c r="AAX2"/>
+      <c r="AAY2"/>
+      <c r="AAZ2"/>
+      <c r="ABA2"/>
+      <c r="ABB2"/>
+      <c r="ABC2"/>
+      <c r="ABD2"/>
+      <c r="ABE2"/>
+      <c r="ABF2"/>
+      <c r="ABG2"/>
+      <c r="ABH2"/>
+      <c r="ABI2"/>
+      <c r="ABJ2"/>
+      <c r="ABK2"/>
+      <c r="ABL2"/>
+      <c r="ABM2"/>
+      <c r="ABN2"/>
+      <c r="ABO2"/>
+      <c r="ABP2"/>
+      <c r="ABQ2"/>
+      <c r="ABR2"/>
+      <c r="ABS2"/>
+      <c r="ABT2"/>
+      <c r="ABU2"/>
+      <c r="ABV2"/>
+      <c r="ABW2"/>
+      <c r="ABX2"/>
+      <c r="ABY2"/>
+      <c r="ABZ2"/>
+      <c r="ACA2"/>
+      <c r="ACB2"/>
+      <c r="ACC2"/>
+      <c r="ACD2"/>
+      <c r="ACE2"/>
+      <c r="ACF2"/>
+      <c r="ACG2"/>
+      <c r="ACH2"/>
+      <c r="ACI2"/>
+      <c r="ACJ2"/>
+      <c r="ACK2"/>
+      <c r="ACL2"/>
+      <c r="ACM2"/>
+      <c r="ACN2"/>
+      <c r="ACO2"/>
+      <c r="ACP2"/>
+      <c r="ACQ2"/>
+      <c r="ACR2"/>
+      <c r="ACS2"/>
+      <c r="ACT2"/>
+      <c r="ACU2"/>
+      <c r="ACV2"/>
+      <c r="ACW2"/>
+      <c r="ACX2"/>
+      <c r="ACY2"/>
+      <c r="ACZ2"/>
+      <c r="ADA2"/>
+      <c r="ADB2"/>
+      <c r="ADC2"/>
+      <c r="ADD2"/>
+      <c r="ADE2"/>
+      <c r="ADF2"/>
+      <c r="ADG2"/>
+      <c r="ADH2"/>
+      <c r="ADI2"/>
+      <c r="ADJ2"/>
+      <c r="ADK2"/>
+      <c r="ADL2"/>
+      <c r="ADM2"/>
+      <c r="ADN2"/>
+      <c r="ADO2"/>
+      <c r="ADP2"/>
+      <c r="ADQ2"/>
+      <c r="ADR2"/>
+      <c r="ADS2"/>
+      <c r="ADT2"/>
+      <c r="ADU2"/>
+      <c r="ADV2"/>
+      <c r="ADW2"/>
+      <c r="ADX2"/>
+      <c r="ADY2"/>
+      <c r="ADZ2"/>
+      <c r="AEA2"/>
+      <c r="AEB2"/>
+      <c r="AEC2"/>
+      <c r="AED2"/>
+      <c r="AEE2"/>
+      <c r="AEF2"/>
+      <c r="AEG2"/>
+      <c r="AEH2"/>
+      <c r="AEI2"/>
+      <c r="AEJ2"/>
+      <c r="AEK2"/>
+      <c r="AEL2"/>
+      <c r="AEM2"/>
+      <c r="AEN2"/>
+      <c r="AEO2"/>
+      <c r="AEP2"/>
+      <c r="AEQ2"/>
+      <c r="AER2"/>
+      <c r="AES2"/>
+      <c r="AET2"/>
+      <c r="AEU2"/>
+      <c r="AEV2"/>
+      <c r="AEW2"/>
+      <c r="AEX2"/>
+      <c r="AEY2"/>
+      <c r="AEZ2"/>
+      <c r="AFA2"/>
+      <c r="AFB2"/>
+      <c r="AFC2"/>
+      <c r="AFD2"/>
+      <c r="AFE2"/>
+      <c r="AFF2"/>
+      <c r="AFG2"/>
+      <c r="AFH2"/>
+      <c r="AFI2"/>
+      <c r="AFJ2"/>
+      <c r="AFK2"/>
+      <c r="AFL2"/>
+      <c r="AFM2"/>
+      <c r="AFN2"/>
+      <c r="AFO2"/>
+      <c r="AFP2"/>
+      <c r="AFQ2"/>
+      <c r="AFR2"/>
+      <c r="AFS2"/>
+      <c r="AFT2"/>
+      <c r="AFU2"/>
+      <c r="AFV2"/>
+      <c r="AFW2"/>
+      <c r="AFX2"/>
+      <c r="AFY2"/>
+      <c r="AFZ2"/>
+      <c r="AGA2"/>
+      <c r="AGB2"/>
+      <c r="AGC2"/>
+      <c r="AGD2"/>
+      <c r="AGE2"/>
+      <c r="AGF2"/>
+      <c r="AGG2"/>
+      <c r="AGH2"/>
+      <c r="AGI2"/>
+      <c r="AGJ2"/>
+      <c r="AGK2"/>
+      <c r="AGL2"/>
+      <c r="AGM2"/>
+      <c r="AGN2"/>
+      <c r="AGO2"/>
+      <c r="AGP2"/>
+      <c r="AGQ2"/>
+      <c r="AGR2"/>
+      <c r="AGS2"/>
+      <c r="AGT2"/>
+      <c r="AGU2"/>
+      <c r="AGV2"/>
+      <c r="AGW2"/>
+      <c r="AGX2"/>
+      <c r="AGY2"/>
+      <c r="AGZ2"/>
+      <c r="AHA2"/>
+      <c r="AHB2"/>
+      <c r="AHC2"/>
+      <c r="AHD2"/>
+      <c r="AHE2"/>
+      <c r="AHF2"/>
+      <c r="AHG2"/>
+      <c r="AHH2"/>
+      <c r="AHI2"/>
+      <c r="AHJ2"/>
+      <c r="AHK2"/>
+      <c r="AHL2"/>
+      <c r="AHM2"/>
+      <c r="AHN2"/>
+      <c r="AHO2"/>
+      <c r="AHP2"/>
+      <c r="AHQ2"/>
+      <c r="AHR2"/>
+      <c r="AHS2"/>
+      <c r="AHT2"/>
+      <c r="AHU2"/>
+      <c r="AHV2"/>
+      <c r="AHW2"/>
+      <c r="AHX2"/>
+      <c r="AHY2"/>
+      <c r="AHZ2"/>
+      <c r="AIA2"/>
+      <c r="AIB2"/>
+      <c r="AIC2"/>
+      <c r="AID2"/>
+      <c r="AIE2"/>
+      <c r="AIF2"/>
+      <c r="AIG2"/>
+      <c r="AIH2"/>
+      <c r="AII2"/>
+      <c r="AIJ2"/>
+      <c r="AIK2"/>
+      <c r="AIL2"/>
+      <c r="AIM2"/>
+      <c r="AIN2"/>
+      <c r="AIO2"/>
+      <c r="AIP2"/>
+      <c r="AIQ2"/>
+      <c r="AIR2"/>
+      <c r="AIS2"/>
+      <c r="AIT2"/>
+      <c r="AIU2"/>
+      <c r="AIV2"/>
+      <c r="AIW2"/>
+      <c r="AIX2"/>
+      <c r="AIY2"/>
+      <c r="AIZ2"/>
+      <c r="AJA2"/>
+      <c r="AJB2"/>
+      <c r="AJC2"/>
+      <c r="AJD2"/>
+      <c r="AJE2"/>
+      <c r="AJF2"/>
+      <c r="AJG2"/>
+      <c r="AJH2"/>
+      <c r="AJI2"/>
+      <c r="AJJ2"/>
+      <c r="AJK2"/>
+      <c r="AJL2"/>
+      <c r="AJM2"/>
+      <c r="AJN2"/>
+      <c r="AJO2"/>
+      <c r="AJP2"/>
+      <c r="AJQ2"/>
+      <c r="AJR2"/>
+      <c r="AJS2"/>
+      <c r="AJT2"/>
+      <c r="AJU2"/>
+      <c r="AJV2"/>
+      <c r="AJW2"/>
+      <c r="AJX2"/>
+      <c r="AJY2"/>
+      <c r="AJZ2"/>
+      <c r="AKA2"/>
+      <c r="AKB2"/>
+      <c r="AKC2"/>
+      <c r="AKD2"/>
+      <c r="AKE2"/>
+      <c r="AKF2"/>
+      <c r="AKG2"/>
+      <c r="AKH2"/>
+      <c r="AKI2"/>
+      <c r="AKJ2"/>
+      <c r="AKK2"/>
+      <c r="AKL2"/>
+      <c r="AKM2"/>
+      <c r="AKN2"/>
+      <c r="AKO2"/>
+      <c r="AKP2"/>
+      <c r="AKQ2"/>
+      <c r="AKR2"/>
+      <c r="AKS2"/>
+      <c r="AKT2"/>
+      <c r="AKU2"/>
+      <c r="AKV2"/>
+      <c r="AKW2"/>
+      <c r="AKX2"/>
+      <c r="AKY2"/>
+      <c r="AKZ2"/>
+      <c r="ALA2"/>
+      <c r="ALB2"/>
+      <c r="ALC2"/>
+      <c r="ALD2"/>
+      <c r="ALE2"/>
+      <c r="ALF2"/>
+      <c r="ALG2"/>
+      <c r="ALH2"/>
+      <c r="ALI2"/>
+      <c r="ALJ2"/>
+      <c r="ALK2"/>
+      <c r="ALL2"/>
+      <c r="ALM2"/>
+      <c r="ALN2"/>
+      <c r="ALO2"/>
+      <c r="ALP2"/>
+      <c r="ALQ2"/>
+      <c r="ALR2"/>
+      <c r="ALS2"/>
+      <c r="ALT2"/>
+      <c r="ALU2"/>
+      <c r="ALV2"/>
+      <c r="ALW2"/>
+      <c r="ALX2"/>
+      <c r="ALY2"/>
+      <c r="ALZ2"/>
+      <c r="AMA2"/>
+      <c r="AMB2"/>
+      <c r="AMC2"/>
+      <c r="AMD2"/>
+      <c r="AME2"/>
+      <c r="AMF2"/>
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+    </row>
+    <row r="3" spans="1:1022" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
+    <row r="5" spans="1:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
-        <v>179</v>
-      </c>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
@@ -2887,12 +3907,9 @@
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="B4:B176 C6:C85" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="C5:C84 B4:B175" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2921,16 +3938,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">

--- a/dictionaries/chemicals_ath/1_0/1_0_yearly_rep.xlsx
+++ b/dictionaries/chemicals_ath/1_0/1_0_yearly_rep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\alldicts\14jul2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\alldicts\18oct2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161BDD76-DE51-4E84-9921-99A3D4B0C008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB6E6A-A6E6-4957-82BC-CD4F14BB51E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="369">
   <si>
     <t>table</t>
   </si>
@@ -112,450 +112,228 @@
     <t>c_trcs_raw_</t>
   </si>
   <si>
-    <t>child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_trcs_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine TRCS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mibp_raw_</t>
   </si>
   <si>
-    <t>child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mibp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MiBP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mbzp_raw_</t>
   </si>
   <si>
-    <t>child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mbzp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MBzP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mehhp_raw_</t>
   </si>
   <si>
-    <t>child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mehhp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MEHHP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mecpp_raw_</t>
   </si>
   <si>
-    <t>child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mecpp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MECPP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ohminp_raw_</t>
   </si>
   <si>
-    <t>child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ohminp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine ohminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cxminp_raw_</t>
   </si>
   <si>
-    <t>child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cxminp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine cxminp levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ohminch_raw_</t>
   </si>
   <si>
-    <t>child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ohminch_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine ohminch levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mnpep_raw_</t>
   </si>
   <si>
-    <t>child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mnpep_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MnPeP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mnop_raw_</t>
   </si>
   <si>
-    <t>child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mnop_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MnOP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mhxp_raw_</t>
   </si>
   <si>
-    <t>child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_mhxp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine mHxP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfhps_raw_</t>
   </si>
   <si>
-    <t>child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfhps_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PFHpS levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfoa_raw_</t>
   </si>
   <si>
-    <t>child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfoa_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PFOA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfda_raw_</t>
   </si>
   <si>
-    <t>child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pfda_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PFDA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pcb138_raw_</t>
   </si>
   <si>
     <t>pg/g</t>
   </si>
   <si>
-    <t>child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pcb138_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PCB-138 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pcb170_raw_</t>
   </si>
   <si>
-    <t>child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pcb170_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PCB-170 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ddt_raw_</t>
   </si>
   <si>
-    <t>child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_ddt_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child DDT levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_hcb_raw_</t>
   </si>
   <si>
-    <t>child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_hcb_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child HCB levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pbde47_raw_</t>
   </si>
   <si>
-    <t>child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pbde47_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child PBDE-47 levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cd_raw_</t>
   </si>
   <si>
-    <t>child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cd_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Cd levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_se_raw_</t>
   </si>
   <si>
-    <t>child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_se_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Se levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_zn_raw_</t>
   </si>
   <si>
-    <t>child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_zn_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Zn levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_tl_raw_</t>
   </si>
   <si>
-    <t>child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_tl_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Tl levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cu_raw_</t>
   </si>
   <si>
-    <t>child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cu_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Cu levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cs_raw_</t>
   </si>
   <si>
-    <t>child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_cs_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child Cs levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_k_raw_</t>
   </si>
   <si>
-    <t>child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_k_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child K levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dmtp_raw_</t>
   </si>
   <si>
-    <t>child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dmtp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine DMTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dep_raw_</t>
   </si>
   <si>
-    <t>child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dep_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine DEP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dedtp_raw_</t>
   </si>
   <si>
-    <t>child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_dedtp_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine DEDTP levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_chrsene_raw_</t>
   </si>
   <si>
-    <t>child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_chrsene_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine chrysene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_napthalene_raw_</t>
   </si>
   <si>
-    <t>child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_napthalene_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine Napthalene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_prene_raw_</t>
   </si>
   <si>
-    <t>child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_prene_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine Pyrene levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pyrethroids_raw_</t>
   </si>
   <si>
-    <t>child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_pyrethroids_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine Pyrethroids levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_imazalil_raw_</t>
   </si>
   <si>
-    <t>child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_imazalil_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine Imazalil levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_maa_raw_</t>
   </si>
   <si>
-    <t>child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_maa_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine MAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_eaa_raw_</t>
   </si>
   <si>
-    <t>child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_eaa_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine EAA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_2mpa_raw_</t>
   </si>
   <si>
-    <t>child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>c_2mpa_lod_</t>
   </si>
   <si>
-    <t>limit of detection of child urine 2-MPA levels within # year of age (child was aged between # and &lt; #+1 year)</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -566,6 +344,795 @@
   </si>
   <si>
     <t>Unique identifer for the row in Opal</t>
+  </si>
+  <si>
+    <t>child urine BPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine BPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_bpa_raw_</t>
+  </si>
+  <si>
+    <t>c_bpa_lod_</t>
+  </si>
+  <si>
+    <t>c_prpa_raw_</t>
+  </si>
+  <si>
+    <t>c_mepa_raw_</t>
+  </si>
+  <si>
+    <t>c_mepa_lod_</t>
+  </si>
+  <si>
+    <t>c_prpa_lod_</t>
+  </si>
+  <si>
+    <t>c_bupa_raw_</t>
+  </si>
+  <si>
+    <t>c_bupa_lod_</t>
+  </si>
+  <si>
+    <t>c_oxbe_raw_</t>
+  </si>
+  <si>
+    <t>c_oxbe_lod_</t>
+  </si>
+  <si>
+    <t>child urine ETPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ETPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine PRPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine PRPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine BUPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine BUPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine OXBE levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine OXBE levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine TRCS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine TRCS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MEP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MiBP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MiBP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MnBP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MnBP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MBzP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MBzP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MEHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MEHHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEHHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MEOHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEOHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MECPP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MECPP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MMCHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MMCHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine ohminp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ohminp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine oxo-MiNP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine oxo-MiNP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine cxminp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine cxminp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine ohmphp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ohmphp levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine ohminch levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine ohminch levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine oxominch levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine oxominch levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MnPeP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MnPeP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MCHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MCHP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MnOP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MnOP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine mMP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine mMP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine mHxP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine mHxP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine mHpP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine mHpP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_mep_raw_</t>
+  </si>
+  <si>
+    <t>c_mep_lod_</t>
+  </si>
+  <si>
+    <t>c_mnbp_raw_</t>
+  </si>
+  <si>
+    <t>c_mnbp_lod_</t>
+  </si>
+  <si>
+    <t>c_mehp_raw_</t>
+  </si>
+  <si>
+    <t>c_mehp_lod_</t>
+  </si>
+  <si>
+    <t>c_meohp_raw_</t>
+  </si>
+  <si>
+    <t>c_meohp_lod_</t>
+  </si>
+  <si>
+    <t>c_mmchp_raw_</t>
+  </si>
+  <si>
+    <t>c_mmchp_lod_</t>
+  </si>
+  <si>
+    <t>c_oxominp_raw_</t>
+  </si>
+  <si>
+    <t>c_oxominp_lod_</t>
+  </si>
+  <si>
+    <t>c_ohmphp_raw_</t>
+  </si>
+  <si>
+    <t>c_ohmphp_lod_</t>
+  </si>
+  <si>
+    <t>c_oxominch_raw_</t>
+  </si>
+  <si>
+    <t>c_oxominch_lod_</t>
+  </si>
+  <si>
+    <t>c_mchp_raw_</t>
+  </si>
+  <si>
+    <t>c_mchp_lod_</t>
+  </si>
+  <si>
+    <t>c_mmp_raw_</t>
+  </si>
+  <si>
+    <t>c_mmp_lod_</t>
+  </si>
+  <si>
+    <t>c_mhpp_raw_</t>
+  </si>
+  <si>
+    <t>c_mhpp_lod_</t>
+  </si>
+  <si>
+    <t>c_pfhxs_raw_</t>
+  </si>
+  <si>
+    <t>c_pfhxs_lod_</t>
+  </si>
+  <si>
+    <t>c_pfos_raw_</t>
+  </si>
+  <si>
+    <t>c_pfos_lod_</t>
+  </si>
+  <si>
+    <t>c_pfna_raw_</t>
+  </si>
+  <si>
+    <t>c_pfna_lod_</t>
+  </si>
+  <si>
+    <t>c_pfunda_raw_</t>
+  </si>
+  <si>
+    <t>c_pfunda_lod_</t>
+  </si>
+  <si>
+    <t>child PFHxS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFHxS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFHpS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFHpS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFOS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFOS levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFOA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFOA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFNA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFNA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFDA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFDA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PFUnDA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PFUnDA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_creatinine_raw_</t>
+  </si>
+  <si>
+    <t>c_creatinine_lod_</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>child urine Creatinine levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Creatinine levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_pcb118_raw_</t>
+  </si>
+  <si>
+    <t>c_pcb118_lod_</t>
+  </si>
+  <si>
+    <t>c_pcb153_raw_</t>
+  </si>
+  <si>
+    <t>c_pcb153_lod_</t>
+  </si>
+  <si>
+    <t>c_pcb180_raw_</t>
+  </si>
+  <si>
+    <t>c_pcb180_lod_</t>
+  </si>
+  <si>
+    <t>c_dde_raw_</t>
+  </si>
+  <si>
+    <t>c_dde_lod_</t>
+  </si>
+  <si>
+    <t>c_hch_raw_</t>
+  </si>
+  <si>
+    <t>c_hch_lod_</t>
+  </si>
+  <si>
+    <t>c_pbde153_raw_</t>
+  </si>
+  <si>
+    <t>c_pbde153_lod_</t>
+  </si>
+  <si>
+    <t>child PCB-118 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-118 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PCB-138 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-138 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PCB-153 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-153 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PCB-170 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-170 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PCB-180 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PCB-180 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child DDT levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child DDT levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child DDE levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child DDE levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child HCB levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child HCB levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child HCH levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child HCH levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PBDE-47 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PBDE-47 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child PBDE-153 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child PBDE-153 levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_hg_raw_</t>
+  </si>
+  <si>
+    <t>c_hg_lod_</t>
+  </si>
+  <si>
+    <t>c_pb_raw_</t>
+  </si>
+  <si>
+    <t>c_pb_lod_</t>
+  </si>
+  <si>
+    <t>c_mn_raw_</t>
+  </si>
+  <si>
+    <t>c_mn_lod_</t>
+  </si>
+  <si>
+    <t>c_as_raw_</t>
+  </si>
+  <si>
+    <t>c_as_lod_</t>
+  </si>
+  <si>
+    <t>c_co_raw_</t>
+  </si>
+  <si>
+    <t>c_co_lod_</t>
+  </si>
+  <si>
+    <t>c_mo_raw_</t>
+  </si>
+  <si>
+    <t>c_mo_lod_</t>
+  </si>
+  <si>
+    <t>c_na_raw_</t>
+  </si>
+  <si>
+    <t>c_na_lod_</t>
+  </si>
+  <si>
+    <t>c_mg_raw_</t>
+  </si>
+  <si>
+    <t>c_mg_lod_</t>
+  </si>
+  <si>
+    <t>child Hg levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Hg levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Cd levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cd levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Pb levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Pb levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Se levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Se levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Mn levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Mn levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Zn levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Zn levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child As levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child As levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Tl levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Tl levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Co levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Co levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Cu levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cu levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Mo levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Mo levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Cs levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Cs levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Na levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Na levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child K levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child K levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child Mg levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child Mg levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DMP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DMP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DMTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DMTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DMDTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DMDTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DEP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DEP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DETP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DETP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine DEDTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine DEDTP levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_dmp_raw_</t>
+  </si>
+  <si>
+    <t>c_dmp_lod_</t>
+  </si>
+  <si>
+    <t>c_dmdtp_raw_</t>
+  </si>
+  <si>
+    <t>c_dmdtp_lod_</t>
+  </si>
+  <si>
+    <t>c_detp_raw_</t>
+  </si>
+  <si>
+    <t>c_detp_lod_</t>
+  </si>
+  <si>
+    <t>c_cotinine_raw_</t>
+  </si>
+  <si>
+    <t>c_cotinine_lod_</t>
+  </si>
+  <si>
+    <t>child urine Cotinine levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Cotinine levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_benzoaprene_raw_</t>
+  </si>
+  <si>
+    <t>c_benzoaprene_lod_</t>
+  </si>
+  <si>
+    <t>c_fluorene_raw_</t>
+  </si>
+  <si>
+    <t>c_fluorene_lod_</t>
+  </si>
+  <si>
+    <t>c_phenanthrene_raw_</t>
+  </si>
+  <si>
+    <t>c_phenanthrene_lod_</t>
+  </si>
+  <si>
+    <t>child urine benzoapyrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine benzoapyrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine chrysene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine chrysene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Fluorene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Fluorene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Napthalene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Napthalene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Phenanthrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Phenanthrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Pyrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Pyrene levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_chlorphyrifos_raw_</t>
+  </si>
+  <si>
+    <t>c_chlorphyrifos_lod_</t>
+  </si>
+  <si>
+    <t>c_boscalid_raw_</t>
+  </si>
+  <si>
+    <t>c_boscalid_lod_</t>
+  </si>
+  <si>
+    <t>child urine Chlorphyrifos levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Chlorphyrifos levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Pyrethroids levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Pyrethroids levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Boscalid levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Boscalid levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine Imazalil levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Imazalil levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>c_phenoxyacetic_acid_raw_</t>
+  </si>
+  <si>
+    <t>c_phenoxyacetic_acid_lod_</t>
+  </si>
+  <si>
+    <t>c_meaa_raw_</t>
+  </si>
+  <si>
+    <t>c_meaa_lod_</t>
+  </si>
+  <si>
+    <t>c_eeaa_raw_</t>
+  </si>
+  <si>
+    <t>c_eeaa_lod_</t>
+  </si>
+  <si>
+    <t>child urine Phenoxyacetic acid levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine Phenoxyacetic acid levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine MEAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine MEAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine EAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine EAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine EEAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine EEAA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>child urine 2-MPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
+  </si>
+  <si>
+    <t>limit of detection of child urine 2-MPA levels within # year of age (child was aged between # and &lt;#+1 year)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +1278,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,12 +1384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -986,7 +1547,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1003,13 +1564,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1431,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH175"/>
+  <dimension ref="A1:AMH185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1459,17 +2016,17 @@
       </c>
     </row>
     <row r="2" spans="1:1022" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>179</v>
+      <c r="C2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2503,1419 +3060,3561 @@
       </c>
     </row>
     <row r="4" spans="1:1022" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4"/>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
+      <c r="MK4"/>
+      <c r="ML4"/>
+      <c r="MM4"/>
+      <c r="MN4"/>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
+      <c r="MT4"/>
+      <c r="MU4"/>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
+      <c r="MZ4"/>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
+      <c r="NJ4"/>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
+      <c r="OE4"/>
+      <c r="OF4"/>
+      <c r="OG4"/>
+      <c r="OH4"/>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
+      <c r="OL4"/>
+      <c r="OM4"/>
+      <c r="ON4"/>
+      <c r="OO4"/>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
+      <c r="OS4"/>
+      <c r="OT4"/>
+      <c r="OU4"/>
+      <c r="OV4"/>
+      <c r="OW4"/>
+      <c r="OX4"/>
+      <c r="OY4"/>
+      <c r="OZ4"/>
+      <c r="PA4"/>
+      <c r="PB4"/>
+      <c r="PC4"/>
+      <c r="PD4"/>
+      <c r="PE4"/>
+      <c r="PF4"/>
+      <c r="PG4"/>
+      <c r="PH4"/>
+      <c r="PI4"/>
+      <c r="PJ4"/>
+      <c r="PK4"/>
+      <c r="PL4"/>
+      <c r="PM4"/>
+      <c r="PN4"/>
+      <c r="PO4"/>
+      <c r="PP4"/>
+      <c r="PQ4"/>
+      <c r="PR4"/>
+      <c r="PS4"/>
+      <c r="PT4"/>
+      <c r="PU4"/>
+      <c r="PV4"/>
+      <c r="PW4"/>
+      <c r="PX4"/>
+      <c r="PY4"/>
+      <c r="PZ4"/>
+      <c r="QA4"/>
+      <c r="QB4"/>
+      <c r="QC4"/>
+      <c r="QD4"/>
+      <c r="QE4"/>
+      <c r="QF4"/>
+      <c r="QG4"/>
+      <c r="QH4"/>
+      <c r="QI4"/>
+      <c r="QJ4"/>
+      <c r="QK4"/>
+      <c r="QL4"/>
+      <c r="QM4"/>
+      <c r="QN4"/>
+      <c r="QO4"/>
+      <c r="QP4"/>
+      <c r="QQ4"/>
+      <c r="QR4"/>
+      <c r="QS4"/>
+      <c r="QT4"/>
+      <c r="QU4"/>
+      <c r="QV4"/>
+      <c r="QW4"/>
+      <c r="QX4"/>
+      <c r="QY4"/>
+      <c r="QZ4"/>
+      <c r="RA4"/>
+      <c r="RB4"/>
+      <c r="RC4"/>
+      <c r="RD4"/>
+      <c r="RE4"/>
+      <c r="RF4"/>
+      <c r="RG4"/>
+      <c r="RH4"/>
+      <c r="RI4"/>
+      <c r="RJ4"/>
+      <c r="RK4"/>
+      <c r="RL4"/>
+      <c r="RM4"/>
+      <c r="RN4"/>
+      <c r="RO4"/>
+      <c r="RP4"/>
+      <c r="RQ4"/>
+      <c r="RR4"/>
+      <c r="RS4"/>
+      <c r="RT4"/>
+      <c r="RU4"/>
+      <c r="RV4"/>
+      <c r="RW4"/>
+      <c r="RX4"/>
+      <c r="RY4"/>
+      <c r="RZ4"/>
+      <c r="SA4"/>
+      <c r="SB4"/>
+      <c r="SC4"/>
+      <c r="SD4"/>
+      <c r="SE4"/>
+      <c r="SF4"/>
+      <c r="SG4"/>
+      <c r="SH4"/>
+      <c r="SI4"/>
+      <c r="SJ4"/>
+      <c r="SK4"/>
+      <c r="SL4"/>
+      <c r="SM4"/>
+      <c r="SN4"/>
+      <c r="SO4"/>
+      <c r="SP4"/>
+      <c r="SQ4"/>
+      <c r="SR4"/>
+      <c r="SS4"/>
+      <c r="ST4"/>
+      <c r="SU4"/>
+      <c r="SV4"/>
+      <c r="SW4"/>
+      <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+      <c r="UI4"/>
+      <c r="UJ4"/>
+      <c r="UK4"/>
+      <c r="UL4"/>
+      <c r="UM4"/>
+      <c r="UN4"/>
+      <c r="UO4"/>
+      <c r="UP4"/>
+      <c r="UQ4"/>
+      <c r="UR4"/>
+      <c r="US4"/>
+      <c r="UT4"/>
+      <c r="UU4"/>
+      <c r="UV4"/>
+      <c r="UW4"/>
+      <c r="UX4"/>
+      <c r="UY4"/>
+      <c r="UZ4"/>
+      <c r="VA4"/>
+      <c r="VB4"/>
+      <c r="VC4"/>
+      <c r="VD4"/>
+      <c r="VE4"/>
+      <c r="VF4"/>
+      <c r="VG4"/>
+      <c r="VH4"/>
+      <c r="VI4"/>
+      <c r="VJ4"/>
+      <c r="VK4"/>
+      <c r="VL4"/>
+      <c r="VM4"/>
+      <c r="VN4"/>
+      <c r="VO4"/>
+      <c r="VP4"/>
+      <c r="VQ4"/>
+      <c r="VR4"/>
+      <c r="VS4"/>
+      <c r="VT4"/>
+      <c r="VU4"/>
+      <c r="VV4"/>
+      <c r="VW4"/>
+      <c r="VX4"/>
+      <c r="VY4"/>
+      <c r="VZ4"/>
+      <c r="WA4"/>
+      <c r="WB4"/>
+      <c r="WC4"/>
+      <c r="WD4"/>
+      <c r="WE4"/>
+      <c r="WF4"/>
+      <c r="WG4"/>
+      <c r="WH4"/>
+      <c r="WI4"/>
+      <c r="WJ4"/>
+      <c r="WK4"/>
+      <c r="WL4"/>
+      <c r="WM4"/>
+      <c r="WN4"/>
+      <c r="WO4"/>
+      <c r="WP4"/>
+      <c r="WQ4"/>
+      <c r="WR4"/>
+      <c r="WS4"/>
+      <c r="WT4"/>
+      <c r="WU4"/>
+      <c r="WV4"/>
+      <c r="WW4"/>
+      <c r="WX4"/>
+      <c r="WY4"/>
+      <c r="WZ4"/>
+      <c r="XA4"/>
+      <c r="XB4"/>
+      <c r="XC4"/>
+      <c r="XD4"/>
+      <c r="XE4"/>
+      <c r="XF4"/>
+      <c r="XG4"/>
+      <c r="XH4"/>
+      <c r="XI4"/>
+      <c r="XJ4"/>
+      <c r="XK4"/>
+      <c r="XL4"/>
+      <c r="XM4"/>
+      <c r="XN4"/>
+      <c r="XO4"/>
+      <c r="XP4"/>
+      <c r="XQ4"/>
+      <c r="XR4"/>
+      <c r="XS4"/>
+      <c r="XT4"/>
+      <c r="XU4"/>
+      <c r="XV4"/>
+      <c r="XW4"/>
+      <c r="XX4"/>
+      <c r="XY4"/>
+      <c r="XZ4"/>
+      <c r="YA4"/>
+      <c r="YB4"/>
+      <c r="YC4"/>
+      <c r="YD4"/>
+      <c r="YE4"/>
+      <c r="YF4"/>
+      <c r="YG4"/>
+      <c r="YH4"/>
+      <c r="YI4"/>
+      <c r="YJ4"/>
+      <c r="YK4"/>
+      <c r="YL4"/>
+      <c r="YM4"/>
+      <c r="YN4"/>
+      <c r="YO4"/>
+      <c r="YP4"/>
+      <c r="YQ4"/>
+      <c r="YR4"/>
+      <c r="YS4"/>
+      <c r="YT4"/>
+      <c r="YU4"/>
+      <c r="YV4"/>
+      <c r="YW4"/>
+      <c r="YX4"/>
+      <c r="YY4"/>
+      <c r="YZ4"/>
+      <c r="ZA4"/>
+      <c r="ZB4"/>
+      <c r="ZC4"/>
+      <c r="ZD4"/>
+      <c r="ZE4"/>
+      <c r="ZF4"/>
+      <c r="ZG4"/>
+      <c r="ZH4"/>
+      <c r="ZI4"/>
+      <c r="ZJ4"/>
+      <c r="ZK4"/>
+      <c r="ZL4"/>
+      <c r="ZM4"/>
+      <c r="ZN4"/>
+      <c r="ZO4"/>
+      <c r="ZP4"/>
+      <c r="ZQ4"/>
+      <c r="ZR4"/>
+      <c r="ZS4"/>
+      <c r="ZT4"/>
+      <c r="ZU4"/>
+      <c r="ZV4"/>
+      <c r="ZW4"/>
+      <c r="ZX4"/>
+      <c r="ZY4"/>
+      <c r="ZZ4"/>
+      <c r="AAA4"/>
+      <c r="AAB4"/>
+      <c r="AAC4"/>
+      <c r="AAD4"/>
+      <c r="AAE4"/>
+      <c r="AAF4"/>
+      <c r="AAG4"/>
+      <c r="AAH4"/>
+      <c r="AAI4"/>
+      <c r="AAJ4"/>
+      <c r="AAK4"/>
+      <c r="AAL4"/>
+      <c r="AAM4"/>
+      <c r="AAN4"/>
+      <c r="AAO4"/>
+      <c r="AAP4"/>
+      <c r="AAQ4"/>
+      <c r="AAR4"/>
+      <c r="AAS4"/>
+      <c r="AAT4"/>
+      <c r="AAU4"/>
+      <c r="AAV4"/>
+      <c r="AAW4"/>
+      <c r="AAX4"/>
+      <c r="AAY4"/>
+      <c r="AAZ4"/>
+      <c r="ABA4"/>
+      <c r="ABB4"/>
+      <c r="ABC4"/>
+      <c r="ABD4"/>
+      <c r="ABE4"/>
+      <c r="ABF4"/>
+      <c r="ABG4"/>
+      <c r="ABH4"/>
+      <c r="ABI4"/>
+      <c r="ABJ4"/>
+      <c r="ABK4"/>
+      <c r="ABL4"/>
+      <c r="ABM4"/>
+      <c r="ABN4"/>
+      <c r="ABO4"/>
+      <c r="ABP4"/>
+      <c r="ABQ4"/>
+      <c r="ABR4"/>
+      <c r="ABS4"/>
+      <c r="ABT4"/>
+      <c r="ABU4"/>
+      <c r="ABV4"/>
+      <c r="ABW4"/>
+      <c r="ABX4"/>
+      <c r="ABY4"/>
+      <c r="ABZ4"/>
+      <c r="ACA4"/>
+      <c r="ACB4"/>
+      <c r="ACC4"/>
+      <c r="ACD4"/>
+      <c r="ACE4"/>
+      <c r="ACF4"/>
+      <c r="ACG4"/>
+      <c r="ACH4"/>
+      <c r="ACI4"/>
+      <c r="ACJ4"/>
+      <c r="ACK4"/>
+      <c r="ACL4"/>
+      <c r="ACM4"/>
+      <c r="ACN4"/>
+      <c r="ACO4"/>
+      <c r="ACP4"/>
+      <c r="ACQ4"/>
+      <c r="ACR4"/>
+      <c r="ACS4"/>
+      <c r="ACT4"/>
+      <c r="ACU4"/>
+      <c r="ACV4"/>
+      <c r="ACW4"/>
+      <c r="ACX4"/>
+      <c r="ACY4"/>
+      <c r="ACZ4"/>
+      <c r="ADA4"/>
+      <c r="ADB4"/>
+      <c r="ADC4"/>
+      <c r="ADD4"/>
+      <c r="ADE4"/>
+      <c r="ADF4"/>
+      <c r="ADG4"/>
+      <c r="ADH4"/>
+      <c r="ADI4"/>
+      <c r="ADJ4"/>
+      <c r="ADK4"/>
+      <c r="ADL4"/>
+      <c r="ADM4"/>
+      <c r="ADN4"/>
+      <c r="ADO4"/>
+      <c r="ADP4"/>
+      <c r="ADQ4"/>
+      <c r="ADR4"/>
+      <c r="ADS4"/>
+      <c r="ADT4"/>
+      <c r="ADU4"/>
+      <c r="ADV4"/>
+      <c r="ADW4"/>
+      <c r="ADX4"/>
+      <c r="ADY4"/>
+      <c r="ADZ4"/>
+      <c r="AEA4"/>
+      <c r="AEB4"/>
+      <c r="AEC4"/>
+      <c r="AED4"/>
+      <c r="AEE4"/>
+      <c r="AEF4"/>
+      <c r="AEG4"/>
+      <c r="AEH4"/>
+      <c r="AEI4"/>
+      <c r="AEJ4"/>
+      <c r="AEK4"/>
+      <c r="AEL4"/>
+      <c r="AEM4"/>
+      <c r="AEN4"/>
+      <c r="AEO4"/>
+      <c r="AEP4"/>
+      <c r="AEQ4"/>
+      <c r="AER4"/>
+      <c r="AES4"/>
+      <c r="AET4"/>
+      <c r="AEU4"/>
+      <c r="AEV4"/>
+      <c r="AEW4"/>
+      <c r="AEX4"/>
+      <c r="AEY4"/>
+      <c r="AEZ4"/>
+      <c r="AFA4"/>
+      <c r="AFB4"/>
+      <c r="AFC4"/>
+      <c r="AFD4"/>
+      <c r="AFE4"/>
+      <c r="AFF4"/>
+      <c r="AFG4"/>
+      <c r="AFH4"/>
+      <c r="AFI4"/>
+      <c r="AFJ4"/>
+      <c r="AFK4"/>
+      <c r="AFL4"/>
+      <c r="AFM4"/>
+      <c r="AFN4"/>
+      <c r="AFO4"/>
+      <c r="AFP4"/>
+      <c r="AFQ4"/>
+      <c r="AFR4"/>
+      <c r="AFS4"/>
+      <c r="AFT4"/>
+      <c r="AFU4"/>
+      <c r="AFV4"/>
+      <c r="AFW4"/>
+      <c r="AFX4"/>
+      <c r="AFY4"/>
+      <c r="AFZ4"/>
+      <c r="AGA4"/>
+      <c r="AGB4"/>
+      <c r="AGC4"/>
+      <c r="AGD4"/>
+      <c r="AGE4"/>
+      <c r="AGF4"/>
+      <c r="AGG4"/>
+      <c r="AGH4"/>
+      <c r="AGI4"/>
+      <c r="AGJ4"/>
+      <c r="AGK4"/>
+      <c r="AGL4"/>
+      <c r="AGM4"/>
+      <c r="AGN4"/>
+      <c r="AGO4"/>
+      <c r="AGP4"/>
+      <c r="AGQ4"/>
+      <c r="AGR4"/>
+      <c r="AGS4"/>
+      <c r="AGT4"/>
+      <c r="AGU4"/>
+      <c r="AGV4"/>
+      <c r="AGW4"/>
+      <c r="AGX4"/>
+      <c r="AGY4"/>
+      <c r="AGZ4"/>
+      <c r="AHA4"/>
+      <c r="AHB4"/>
+      <c r="AHC4"/>
+      <c r="AHD4"/>
+      <c r="AHE4"/>
+      <c r="AHF4"/>
+      <c r="AHG4"/>
+      <c r="AHH4"/>
+      <c r="AHI4"/>
+      <c r="AHJ4"/>
+      <c r="AHK4"/>
+      <c r="AHL4"/>
+      <c r="AHM4"/>
+      <c r="AHN4"/>
+      <c r="AHO4"/>
+      <c r="AHP4"/>
+      <c r="AHQ4"/>
+      <c r="AHR4"/>
+      <c r="AHS4"/>
+      <c r="AHT4"/>
+      <c r="AHU4"/>
+      <c r="AHV4"/>
+      <c r="AHW4"/>
+      <c r="AHX4"/>
+      <c r="AHY4"/>
+      <c r="AHZ4"/>
+      <c r="AIA4"/>
+      <c r="AIB4"/>
+      <c r="AIC4"/>
+      <c r="AID4"/>
+      <c r="AIE4"/>
+      <c r="AIF4"/>
+      <c r="AIG4"/>
+      <c r="AIH4"/>
+      <c r="AII4"/>
+      <c r="AIJ4"/>
+      <c r="AIK4"/>
+      <c r="AIL4"/>
+      <c r="AIM4"/>
+      <c r="AIN4"/>
+      <c r="AIO4"/>
+      <c r="AIP4"/>
+      <c r="AIQ4"/>
+      <c r="AIR4"/>
+      <c r="AIS4"/>
+      <c r="AIT4"/>
+      <c r="AIU4"/>
+      <c r="AIV4"/>
+      <c r="AIW4"/>
+      <c r="AIX4"/>
+      <c r="AIY4"/>
+      <c r="AIZ4"/>
+      <c r="AJA4"/>
+      <c r="AJB4"/>
+      <c r="AJC4"/>
+      <c r="AJD4"/>
+      <c r="AJE4"/>
+      <c r="AJF4"/>
+      <c r="AJG4"/>
+      <c r="AJH4"/>
+      <c r="AJI4"/>
+      <c r="AJJ4"/>
+      <c r="AJK4"/>
+      <c r="AJL4"/>
+      <c r="AJM4"/>
+      <c r="AJN4"/>
+      <c r="AJO4"/>
+      <c r="AJP4"/>
+      <c r="AJQ4"/>
+      <c r="AJR4"/>
+      <c r="AJS4"/>
+      <c r="AJT4"/>
+      <c r="AJU4"/>
+      <c r="AJV4"/>
+      <c r="AJW4"/>
+      <c r="AJX4"/>
+      <c r="AJY4"/>
+      <c r="AJZ4"/>
+      <c r="AKA4"/>
+      <c r="AKB4"/>
+      <c r="AKC4"/>
+      <c r="AKD4"/>
+      <c r="AKE4"/>
+      <c r="AKF4"/>
+      <c r="AKG4"/>
+      <c r="AKH4"/>
+      <c r="AKI4"/>
+      <c r="AKJ4"/>
+      <c r="AKK4"/>
+      <c r="AKL4"/>
+      <c r="AKM4"/>
+      <c r="AKN4"/>
+      <c r="AKO4"/>
+      <c r="AKP4"/>
+      <c r="AKQ4"/>
+      <c r="AKR4"/>
+      <c r="AKS4"/>
+      <c r="AKT4"/>
+      <c r="AKU4"/>
+      <c r="AKV4"/>
+      <c r="AKW4"/>
+      <c r="AKX4"/>
+      <c r="AKY4"/>
+      <c r="AKZ4"/>
+      <c r="ALA4"/>
+      <c r="ALB4"/>
+      <c r="ALC4"/>
+      <c r="ALD4"/>
+      <c r="ALE4"/>
+      <c r="ALF4"/>
+      <c r="ALG4"/>
+      <c r="ALH4"/>
+      <c r="ALI4"/>
+      <c r="ALJ4"/>
+      <c r="ALK4"/>
+      <c r="ALL4"/>
+      <c r="ALM4"/>
+      <c r="ALN4"/>
+      <c r="ALO4"/>
+      <c r="ALP4"/>
+      <c r="ALQ4"/>
+      <c r="ALR4"/>
+      <c r="ALS4"/>
+      <c r="ALT4"/>
+      <c r="ALU4"/>
+      <c r="ALV4"/>
+      <c r="ALW4"/>
+      <c r="ALX4"/>
+      <c r="ALY4"/>
+      <c r="ALZ4"/>
+      <c r="AMA4"/>
+      <c r="AMB4"/>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
     </row>
     <row r="5" spans="1:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>176</v>
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>176</v>
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>176</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>176</v>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>176</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>176</v>
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>176</v>
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>176</v>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>176</v>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>176</v>
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>176</v>
+      <c r="B62" t="s">
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E64"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>176</v>
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>176</v>
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>176</v>
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>176</v>
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>176</v>
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>176</v>
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>176</v>
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>176</v>
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>176</v>
+        <v>199</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>176</v>
+        <v>214</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>176</v>
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>176</v>
+        <v>219</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>176</v>
+        <v>220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>176</v>
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>176</v>
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="6"/>
+      <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="6"/>
+      <c r="A86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="6"/>
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="6"/>
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="6"/>
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="6"/>
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="6"/>
+      <c r="A91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="6"/>
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="6"/>
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="6"/>
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="6"/>
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="6"/>
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>228</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>312</v>
+      </c>
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>316</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>321</v>
+      </c>
+      <c r="B147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" t="s">
+        <v>102</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" t="s">
+        <v>102</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>90</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>91</v>
+      </c>
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>93</v>
+      </c>
+      <c r="B162" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>341</v>
+      </c>
+      <c r="B163" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" t="s">
+        <v>102</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" t="s">
+        <v>102</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" t="s">
+        <v>102</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>96</v>
+      </c>
+      <c r="B169" t="s">
+        <v>102</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>354</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173" t="s">
+        <v>102</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>99</v>
+      </c>
+      <c r="B174" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>355</v>
+      </c>
+      <c r="B175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>100</v>
+      </c>
+      <c r="B177" t="s">
+        <v>102</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>101</v>
+      </c>
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="C5:C84 B4:B175" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="B4:B12 B13:C22 C5:C12 C23:C94 B23:B185" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3933,20 +6632,20 @@
     <col min="5" max="5" width="26" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
